--- a/general/Raspored casova.xlsx
+++ b/general/Raspored casova.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rostojic\Documents\Code.rs-Front end course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kurs-front-end\general\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Datum</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Broj casova</t>
   </si>
   <si>
-    <t>5.2.</t>
-  </si>
-  <si>
     <t>feb</t>
   </si>
   <si>
@@ -47,35 +44,332 @@
     <t>maj</t>
   </si>
   <si>
-    <t>7.2.</t>
-  </si>
-  <si>
-    <t>9.2.</t>
-  </si>
-  <si>
-    <t>12.2.</t>
-  </si>
-  <si>
-    <t>14.2.</t>
-  </si>
-  <si>
-    <t>16.2.</t>
-  </si>
-  <si>
     <t>Mesec</t>
   </si>
   <si>
     <t>Uvod, upoznavnje; HTML, CSS, JavaScript concept</t>
+  </si>
+  <si>
+    <t>5.3.2018</t>
+  </si>
+  <si>
+    <t>2.3.2018</t>
+  </si>
+  <si>
+    <t>7.3.2018</t>
+  </si>
+  <si>
+    <t>9.3.2018</t>
+  </si>
+  <si>
+    <t>12.3.2018</t>
+  </si>
+  <si>
+    <t>14.3.2018</t>
+  </si>
+  <si>
+    <t>sesija-13</t>
+  </si>
+  <si>
+    <t>sesija-14</t>
+  </si>
+  <si>
+    <t>sesija-15</t>
+  </si>
+  <si>
+    <t>sesija-16</t>
+  </si>
+  <si>
+    <t>sesija-17</t>
+  </si>
+  <si>
+    <t>sesija-18</t>
+  </si>
+  <si>
+    <t>sesija-19</t>
+  </si>
+  <si>
+    <t>sesija-20</t>
+  </si>
+  <si>
+    <t>sesija-21</t>
+  </si>
+  <si>
+    <t>sesija-22</t>
+  </si>
+  <si>
+    <t>sesija-23</t>
+  </si>
+  <si>
+    <t>sesija-24</t>
+  </si>
+  <si>
+    <t>sesija-25</t>
+  </si>
+  <si>
+    <t>sesija-26</t>
+  </si>
+  <si>
+    <t>sesija-27</t>
+  </si>
+  <si>
+    <t>sesija-28</t>
+  </si>
+  <si>
+    <t>sesija-29</t>
+  </si>
+  <si>
+    <t>sesija-30</t>
+  </si>
+  <si>
+    <t>sesija-31</t>
+  </si>
+  <si>
+    <t>sesija-32</t>
+  </si>
+  <si>
+    <t>sesija-33</t>
+  </si>
+  <si>
+    <t>sesija-34</t>
+  </si>
+  <si>
+    <t>16.3.2018</t>
+  </si>
+  <si>
+    <t>19.3.2018</t>
+  </si>
+  <si>
+    <t>21.3.2018</t>
+  </si>
+  <si>
+    <t>23.3.2018</t>
+  </si>
+  <si>
+    <t>sesija-11</t>
+  </si>
+  <si>
+    <t>sesija-12</t>
+  </si>
+  <si>
+    <t>sesija-09</t>
+  </si>
+  <si>
+    <t>sesija-10</t>
+  </si>
+  <si>
+    <t>26.3.2018</t>
+  </si>
+  <si>
+    <t>28.3.2018</t>
+  </si>
+  <si>
+    <t>30.3.2018</t>
+  </si>
+  <si>
+    <t>2.4.2018</t>
+  </si>
+  <si>
+    <t>4.4.2018</t>
+  </si>
+  <si>
+    <t>11.4.2018</t>
+  </si>
+  <si>
+    <t>13.4.2018</t>
+  </si>
+  <si>
+    <t>16.4.2018</t>
+  </si>
+  <si>
+    <t>18.4.2018</t>
+  </si>
+  <si>
+    <t>20.4.2018</t>
+  </si>
+  <si>
+    <t>23.4.2018</t>
+  </si>
+  <si>
+    <t>25.4.2018</t>
+  </si>
+  <si>
+    <t>27.8.2018</t>
+  </si>
+  <si>
+    <t>30.4.2018</t>
+  </si>
+  <si>
+    <t>sesija-35</t>
+  </si>
+  <si>
+    <t>sesija-36</t>
+  </si>
+  <si>
+    <t>sesija-37</t>
+  </si>
+  <si>
+    <t>sesija-38</t>
+  </si>
+  <si>
+    <t>sesija-39</t>
+  </si>
+  <si>
+    <t>sesija-40</t>
+  </si>
+  <si>
+    <t>sesija-41</t>
+  </si>
+  <si>
+    <t>sesija-42</t>
+  </si>
+  <si>
+    <t>4.5.2018</t>
+  </si>
+  <si>
+    <t>7.5.2018</t>
+  </si>
+  <si>
+    <t>9.5.2018</t>
+  </si>
+  <si>
+    <t>11.5.2018</t>
+  </si>
+  <si>
+    <t>14.5.2018</t>
+  </si>
+  <si>
+    <t>16.5.2018</t>
+  </si>
+  <si>
+    <t>18.5.2018</t>
+  </si>
+  <si>
+    <t>21.5.2018</t>
+  </si>
+  <si>
+    <t>23.5.2018</t>
+  </si>
+  <si>
+    <t>25.3.2018</t>
+  </si>
+  <si>
+    <t>sesija-43</t>
+  </si>
+  <si>
+    <t>sesija-44</t>
+  </si>
+  <si>
+    <t>sesija-45</t>
+  </si>
+  <si>
+    <t>sesija-46</t>
+  </si>
+  <si>
+    <t>sesija-47</t>
+  </si>
+  <si>
+    <t>sesija-48</t>
+  </si>
+  <si>
+    <t>sesija-49</t>
+  </si>
+  <si>
+    <t>sesija-50</t>
+  </si>
+  <si>
+    <t>28.5.2018</t>
+  </si>
+  <si>
+    <t>30.5.2018</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>1.6.2018</t>
+  </si>
+  <si>
+    <t>sesija-01</t>
+  </si>
+  <si>
+    <t>sesija-02</t>
+  </si>
+  <si>
+    <t>sesija-03</t>
+  </si>
+  <si>
+    <t>sesija-04</t>
+  </si>
+  <si>
+    <t>sesija-05</t>
+  </si>
+  <si>
+    <t>sesija-06</t>
+  </si>
+  <si>
+    <t>sesija-07</t>
+  </si>
+  <si>
+    <t>sesija-08</t>
+  </si>
+  <si>
+    <t>Koeginica</t>
+  </si>
+  <si>
+    <t>19.2.2018</t>
+  </si>
+  <si>
+    <t>14.2.2018</t>
+  </si>
+  <si>
+    <t>9.2.2018</t>
+  </si>
+  <si>
+    <t>7.2.2018</t>
+  </si>
+  <si>
+    <t>5.2.2018</t>
+  </si>
+  <si>
+    <t>21.2.2018</t>
+  </si>
+  <si>
+    <t>23.2.2018</t>
+  </si>
+  <si>
+    <t>26.2.2018</t>
+  </si>
+  <si>
+    <t>28.2.2018</t>
+  </si>
+  <si>
+    <t>4.6.2018</t>
+  </si>
+  <si>
+    <t>11.6.2018</t>
+  </si>
+  <si>
+    <t>8.6.2018</t>
+  </si>
+  <si>
+    <t>6.6.2018</t>
+  </si>
+  <si>
+    <t>CSS - basics</t>
+  </si>
+  <si>
+    <t>Java script - object and constructors</t>
+  </si>
+  <si>
+    <t>Java script - functions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,13 +392,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,8 +400,30 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,16 +437,21 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -160,26 +474,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="5"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="4" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Linked Cell" xfId="4" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="3" builtinId="10"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -457,361 +803,631 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="5" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="9">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>36</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="9">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="9">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="9">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="9">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="9">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="9">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="9">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>52</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="9">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>44</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C25" s="9">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="9">
+        <v>4</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="9">
+        <v>4</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="9">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="9">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="9">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="9">
+        <v>4</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="9">
+        <v>4</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="9">
+        <v>4</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="9">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>52</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
-      <c r="C32" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
-      <c r="C34" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
+      <c r="B35" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="C35" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="5"/>
+      <c r="D35" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>48</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="C36" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="5"/>
+      <c r="D36" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="C37" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>48</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="5"/>
-      <c r="C40" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
-      <c r="C41" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="5"/>
-      <c r="C42" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
-      <c r="C43" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="5"/>
-      <c r="C44" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="5"/>
-      <c r="C45" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="5"/>
-      <c r="C46" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="5"/>
-      <c r="C47" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="5"/>
-      <c r="C48" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="5"/>
-      <c r="C49" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="4">
-        <f>SUM(C2:C49)</f>
-        <v>192</v>
+      <c r="D37" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="2">
+        <v>4</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="2">
+        <v>4</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="2">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="2">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="2">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="2">
+        <v>4</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="2">
+        <v>4</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="9">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>20</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="9">
+        <v>4</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="9">
+        <v>4</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="9">
+        <v>4</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="9">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <f>SUM(C2:C51)</f>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/general/Raspored casova.xlsx
+++ b/general/Raspored casova.xlsx
@@ -32,18 +32,6 @@
     <t>Broj casova</t>
   </si>
   <si>
-    <t>feb</t>
-  </si>
-  <si>
-    <t>mart</t>
-  </si>
-  <si>
-    <t>april</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
     <t>Mesec</t>
   </si>
   <si>
@@ -314,9 +302,6 @@
     <t>sesija-08</t>
   </si>
   <si>
-    <t>Koeginica</t>
-  </si>
-  <si>
     <t>19.2.2018</t>
   </si>
   <si>
@@ -362,7 +347,22 @@
     <t>Java script - object and constructors</t>
   </si>
   <si>
-    <t>Java script - functions</t>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mart</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Maj</t>
+  </si>
+  <si>
+    <t>Java script - functions - vezbe</t>
+  </si>
+  <si>
+    <t>Koleginica- zamena</t>
   </si>
 </sst>
 </file>
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +820,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -831,127 +831,127 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C2" s="9">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>36</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C3" s="9">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C4" s="9">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C5" s="9">
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C6" s="9">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C7" s="9">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C8" s="9">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C9" s="9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C10" s="9">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2">
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -959,157 +959,157 @@
         <v>52</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2">
         <v>4</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2">
         <v>4</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2">
         <v>4</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2">
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2">
         <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2">
         <v>4</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2">
         <v>4</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2">
         <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C24" s="9">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1117,126 +1117,126 @@
         <v>44</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C25" s="9">
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C26" s="9">
         <v>4</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C27" s="9">
         <v>4</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C28" s="9">
         <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C29" s="9">
         <v>4</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C30" s="9">
         <v>4</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C31" s="9">
         <v>4</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C32" s="9">
         <v>4</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C33" s="9">
         <v>4</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C34" s="9">
         <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C35" s="2">
         <v>4</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1244,137 +1244,137 @@
         <v>48</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C36" s="2">
         <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C37" s="2">
         <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C38" s="2">
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C39" s="2">
         <v>4</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C40" s="2">
         <v>4</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C41" s="2">
         <v>4</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C42" s="2">
         <v>4</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C43" s="2">
         <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C44" s="2">
         <v>4</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C45" s="2">
         <v>4</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C46" s="2">
         <v>4</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C47" s="9">
         <v>4</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1382,50 +1382,50 @@
         <v>20</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C48" s="9">
         <v>4</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C49" s="9">
         <v>4</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C50" s="9">
         <v>4</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C51" s="9">
         <v>4</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C52">
+      <c r="C52" s="3">
         <f>SUM(C2:C51)</f>
         <v>200</v>
       </c>

--- a/general/Raspored casova.xlsx
+++ b/general/Raspored casova.xlsx
@@ -239,9 +239,6 @@
     <t>23.5.2018</t>
   </si>
   <si>
-    <t>25.3.2018</t>
-  </si>
-  <si>
     <t>sesija-43</t>
   </si>
   <si>
@@ -363,6 +360,9 @@
   </si>
   <si>
     <t>Koleginica- zamena</t>
+  </si>
+  <si>
+    <t>25.5.2018</t>
   </si>
 </sst>
 </file>
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,16 +831,16 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="9">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -851,87 +851,87 @@
         <v>36</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="9">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="9">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="9">
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="9">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="9">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="9">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="9">
         <v>4</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>5</v>
@@ -1001,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1015,7 +1015,7 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1029,7 +1029,7 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1100,7 +1100,7 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>43</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>62</v>
@@ -1332,49 +1332,49 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="2">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C44" s="2">
-        <v>4</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C45" s="2">
         <v>4</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="2">
         <v>4</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="C47" s="9">
         <v>4</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1382,46 +1382,46 @@
         <v>20</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C48" s="9">
         <v>4</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C49" s="9">
         <v>4</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C50" s="9">
         <v>4</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" s="9">
         <v>4</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">

--- a/general/Raspored casova.xlsx
+++ b/general/Raspored casova.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kurs-front-end\general\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sinisav\Documents\kurs-front-end\general\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="1170" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="119">
   <si>
     <t>Datum</t>
   </si>
@@ -363,6 +363,24 @@
   </si>
   <si>
     <t>25.5.2018</t>
+  </si>
+  <si>
+    <t>Advanced CSS selctors</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>CSS frameworks - Bootstrap</t>
+  </si>
+  <si>
+    <t>Introduction to CSS, box model, selectors</t>
+  </si>
+  <si>
+    <t>CSS - Layouts, responsive design, media queries</t>
+  </si>
+  <si>
+    <t>Sinisa</t>
   </si>
 </sst>
 </file>
@@ -423,7 +441,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,6 +466,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -507,7 +531,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1"/>
@@ -518,6 +542,7 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="5"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -803,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1043,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>32</v>
       </c>
@@ -1032,7 +1057,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>33</v>
       </c>
@@ -1043,7 +1068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>34</v>
       </c>
@@ -1054,7 +1079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>35</v>
       </c>
@@ -1065,7 +1090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>40</v>
       </c>
@@ -1075,8 +1100,14 @@
       <c r="D21" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>41</v>
       </c>
@@ -1086,8 +1117,14 @@
       <c r="D22" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>42</v>
       </c>
@@ -1097,8 +1134,14 @@
       <c r="D23" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>108</v>
       </c>
@@ -1111,8 +1154,14 @@
       <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>44</v>
       </c>
@@ -1125,8 +1174,14 @@
       <c r="D25" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
         <v>45</v>
       </c>
@@ -1137,7 +1192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>46</v>
       </c>
@@ -1148,7 +1203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>47</v>
       </c>
@@ -1159,7 +1214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>48</v>
       </c>
@@ -1170,7 +1225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>49</v>
       </c>
@@ -1181,7 +1236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>50</v>
       </c>
@@ -1192,7 +1247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
         <v>51</v>
       </c>
